--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,16 +36,34 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>оплачены пени</t>
-  </si>
-  <si>
     <t>Начислены пени с 01.11.2019 по 30.01.2020 -90дн (50дн х 0,1% х 6600,37=330,02)</t>
   </si>
   <si>
-    <t>Начислены пени с 22.12.2018 по 17.02.2019 - 56дн (16дн х 0,1% х 9978,15=159,65)</t>
-  </si>
-  <si>
     <t>Начислены пени с 03.07.2019 по 01.11.2019 -120дн (80дн х 0,1% х 9287,33=742,99)</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
+  </si>
+  <si>
+    <t>остаток</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
   </si>
 </sst>
 </file>
@@ -59,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +103,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -101,38 +114,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,27 +169,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -208,45 +197,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,460 +529,267 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F3:F4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32277</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17162</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43770</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33847</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>1570</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>7049.3</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>9287.33</v>
+      </c>
+      <c r="H4" s="9">
+        <v>9287.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18083</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>2238.0300000000002</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43860</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>43860</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>34995</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3-C6</f>
-        <v>1148</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F3" s="5">
-        <f>D3*E3</f>
-        <v>5154.5200000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>18678</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4-C7</f>
-        <v>595</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F4" s="5">
-        <f>D4*E4</f>
-        <v>1445.8500000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43770</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>33847</v>
+        <v>34995</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C8</f>
-        <v>1570</v>
-      </c>
-      <c r="E6" s="7">
+        <f>C6-C4</f>
+        <v>1148</v>
+      </c>
+      <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
-        <v>7049.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
+        <f>D6*E6</f>
+        <v>5154.5200000000004</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>6600.3700000000008</v>
+      </c>
+      <c r="H6" s="9">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>18083</v>
+        <v>18678</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C9</f>
-        <v>921</v>
+        <f>C7-C5</f>
+        <v>595</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>2238.0300000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43649</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>32277</v>
-      </c>
-      <c r="D8" s="2">
-        <f>C8-C10</f>
-        <v>394</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>1769.0600000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>17162</v>
-      </c>
-      <c r="D9" s="2">
-        <f>C9-C11</f>
-        <v>260</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>631.80000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43609</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>31883</v>
-      </c>
-      <c r="D10" s="2">
-        <f>C10-C13</f>
-        <v>842</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>3847.94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>16902</v>
-      </c>
-      <c r="D11" s="2">
-        <f>C11-C14</f>
-        <v>571</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>1364.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43546</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>159.65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>43546</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>31041</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1399</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F13" s="5">
-        <f>D13*E13</f>
-        <v>6393.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16331</v>
-      </c>
-      <c r="D14" s="2">
-        <v>743</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F14" s="5">
-        <f>D14*E14</f>
-        <v>1775.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>43513</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43513</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>29642</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D21" si="1">C16-C18</f>
-        <v>1719</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F21" si="2">D16*E16</f>
-        <v>7855.8300000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>15588</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>888</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>2122.3200000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43456</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>27923</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>1825</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>8212.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14700</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>2326.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43366</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>26098</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>13710</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>192.70000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>43295</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>25906</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>13628</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F7" s="8">
+        <f>D7*E7</f>
+        <v>1445.8500000000001</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(G2:G7)</f>
+        <v>15887.7</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(H2:H7)</f>
+        <v>15987.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <f>SUM(H8,-G8)</f>
+        <v>99.6299999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43770</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="13">
+        <v>742.99</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>43860</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13">
+        <v>330.02</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G8,G10,G11)</f>
+        <v>16960.710000000003</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H8,H10,H11)</f>
+        <v>15987.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <f>SUM(H12,-G12)</f>
+        <v>-973.38000000000284</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:D5"/>
+  <mergeCells count="2">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -222,6 +222,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -709,87 +710,138 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="9" t="s">
+      <c r="A8" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36146</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-C6</f>
+        <v>1151</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8*E8</f>
+        <v>5167.9900000000007</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>6696.4600000000009</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6696.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>19307</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9-C7</f>
+        <v>629</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <f>D9*E9</f>
+        <v>1528.47</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11">
-        <f>SUM(G2:G7)</f>
-        <v>15887.7</v>
-      </c>
-      <c r="H8" s="11">
-        <f>SUM(H2:H7)</f>
-        <v>15987.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+      <c r="G10" s="18">
+        <f>SUM(G2:G9)</f>
+        <v>22584.160000000003</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H2:H9)</f>
+        <v>22683.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <f>SUM(H8,-G8)</f>
-        <v>99.6299999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f>SUM(H10,-G10)</f>
+        <v>99.629999999997381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>43770</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="13">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13">
         <v>742.99</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>43860</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="13">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13">
         <v>330.02</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="9">
-        <f>SUM(G8,G10,G11)</f>
-        <v>16960.710000000003</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SUM(H8,H10,H11)</f>
-        <v>15987.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9" t="s">
+      <c r="G14" s="9">
+        <f>SUM(G10,G12,G13)</f>
+        <v>23657.170000000006</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H10,H12,H13)</f>
+        <v>22683.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <f>SUM(H12,-G12)</f>
-        <v>-973.38000000000284</v>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <f>SUM(H14,-G14)</f>
+        <v>-973.38000000000466</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -214,6 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -222,7 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A10" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -761,87 +767,107 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G12" s="14">
         <f>SUM(G2:G9)</f>
         <v>22584.160000000003</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H12" s="11">
         <f>SUM(H2:H9)</f>
         <v>22683.79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
         <v>99.629999999997381</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>43770</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="13">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="13">
         <v>742.99</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>43860</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13">
         <v>330.02</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="9" t="s">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="9">
-        <f>SUM(G10,G12,G13)</f>
+      <c r="G16" s="9">
+        <f>SUM(G12,G14,G15)</f>
         <v>23657.170000000006</v>
       </c>
-      <c r="H14" s="9">
-        <f>SUM(H10,H12,H13)</f>
+      <c r="H16" s="9">
+        <f>SUM(H12,H14,H15)</f>
         <v>22683.79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
         <v>-973.38000000000466</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -57,13 +57,10 @@
     <t>итого за период</t>
   </si>
   <si>
-    <t>к доплате</t>
-  </si>
-  <si>
     <t>остаток</t>
   </si>
   <si>
-    <t>итого с пенями</t>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -73,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +116,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -185,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,24 +221,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,10 +557,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -767,107 +788,187 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="3">
+        <v>44074</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>37338</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10-C8</f>
+        <v>1192</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f>D10*E10</f>
+        <v>5614.32</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>7531.92</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7531.92</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20059</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11-C9</f>
+        <v>752</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f>D11*E11</f>
+        <v>1917.6</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>43770</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>742.99</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>43860</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12">
+        <v>330.02</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="14">
-        <f>SUM(G2:G9)</f>
-        <v>22584.160000000003</v>
-      </c>
-      <c r="H12" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>22683.79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
-        <v>99.629999999997381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>43770</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
       <c r="G14" s="13">
-        <v>742.99</v>
-      </c>
-      <c r="H14" s="9"/>
+        <f>SUM(G2:G13)</f>
+        <v>31189.090000000004</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>30215.71</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>43860</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="13">
-        <v>330.02</v>
-      </c>
-      <c r="H15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12">
+        <f>SUM(H14,-G14)</f>
+        <v>-973.38000000000466</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="9">
-        <f>SUM(G12,G14,G15)</f>
-        <v>23657.170000000006</v>
-      </c>
-      <c r="H16" s="9">
-        <f>SUM(H12,H14,H15)</f>
-        <v>22683.79</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
-        <v>-973.38000000000466</v>
-      </c>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -240,7 +240,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,6 +249,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,10 +557,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,14 +696,14 @@
         <v>34995</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C4</f>
+        <f t="shared" ref="D6:D11" si="2">C6-C4</f>
         <v>1148</v>
       </c>
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
       <c r="F6" s="8">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>5154.5200000000004</v>
       </c>
       <c r="G6" s="10">
@@ -723,14 +723,14 @@
         <v>18678</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C5</f>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="8">
-        <f>D7*E7</f>
+        <f t="shared" si="3"/>
         <v>1445.8500000000001</v>
       </c>
       <c r="G7" s="9"/>
@@ -747,14 +747,14 @@
         <v>36146</v>
       </c>
       <c r="D8" s="2">
-        <f>C8-C6</f>
+        <f t="shared" si="2"/>
         <v>1151</v>
       </c>
       <c r="E8" s="6">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f>D8*E8</f>
+        <f t="shared" si="3"/>
         <v>5167.9900000000007</v>
       </c>
       <c r="G8" s="10">
@@ -774,14 +774,14 @@
         <v>19307</v>
       </c>
       <c r="D9" s="2">
-        <f>C9-C7</f>
+        <f t="shared" si="2"/>
         <v>629</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f>D9*E9</f>
+        <f t="shared" si="3"/>
         <v>1528.47</v>
       </c>
       <c r="G9" s="9"/>
@@ -798,14 +798,14 @@
         <v>37338</v>
       </c>
       <c r="D10" s="2">
-        <f>C10-C8</f>
+        <f t="shared" si="2"/>
         <v>1192</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f>D10*E10</f>
+        <f t="shared" si="3"/>
         <v>5614.32</v>
       </c>
       <c r="G10" s="10">
@@ -825,14 +825,14 @@
         <v>20059</v>
       </c>
       <c r="D11" s="2">
-        <f>C11-C9</f>
+        <f t="shared" si="2"/>
         <v>752</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f>D11*E11</f>
+        <f t="shared" si="3"/>
         <v>1917.6</v>
       </c>
       <c r="G11" s="9"/>
@@ -883,92 +883,143 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="9" t="s">
+      <c r="A14" s="3">
+        <v>44130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>37638</v>
+      </c>
+      <c r="D14" s="2">
+        <f>C14-C10</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>1413</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>1747.05</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1747.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20190</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15-C11</f>
+        <v>131</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
+        <v>334.04999999999995</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="13">
-        <f>SUM(G2:G13)</f>
-        <v>31189.090000000004</v>
-      </c>
-      <c r="H14" s="13">
-        <f>SUM(H2:H13)</f>
-        <v>30215.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9" t="s">
+      <c r="G16" s="13">
+        <f>SUM(G2:G15)</f>
+        <v>32936.140000000007</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(H2:H15)</f>
+        <v>31962.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12">
-        <f>SUM(H14,-G14)</f>
-        <v>-973.38000000000466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
+        <v>-973.38000000000829</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -36,12 +36,6 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Начислены пени с 01.11.2019 по 30.01.2020 -90дн (50дн х 0,1% х 6600,37=330,02)</t>
-  </si>
-  <si>
-    <t>Начислены пени с 03.07.2019 по 01.11.2019 -120дн (80дн х 0,1% х 9287,33=742,99)</t>
-  </si>
-  <si>
     <t>День/ ночь</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
   </si>
   <si>
     <t>остаток</t>
-  </si>
-  <si>
-    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -70,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,26 +111,25 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -195,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,24 +211,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -250,6 +224,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -595,13 +576,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,7 +616,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="20">
         <v>43770</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -686,7 +667,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="21">
         <v>43860</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -710,7 +691,7 @@
         <f>SUM(F6,F7)</f>
         <v>6600.3700000000008</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="22">
         <v>6700</v>
       </c>
     </row>
@@ -838,188 +819,144 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>43770</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44130</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>742.99</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>43860</v>
-      </c>
+        <v>37638</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12-C10</f>
+        <v>300</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>1413</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>1747.05</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1747.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12">
-        <v>330.02</v>
-      </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44130</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>37638</v>
-      </c>
-      <c r="D14" s="2">
-        <f>C14-C10</f>
-        <v>300</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
-        <v>1413</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>1747.05</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1747.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
         <v>20190</v>
       </c>
-      <c r="D15" s="2">
-        <f>C15-C11</f>
+      <c r="D13" s="2">
+        <f>C13-C11</f>
         <v>131</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F13" s="8">
         <f t="shared" si="4"/>
         <v>334.04999999999995</v>
       </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>31863.13</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>31962.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
+        <v>99.629999999997381</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(G2:G15)</f>
-        <v>32936.140000000007</v>
-      </c>
-      <c r="H16" s="13">
-        <f>SUM(H2:H15)</f>
-        <v>31962.76</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
-        <v>-973.38000000000829</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>нач-ны пени за 83 дн</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +222,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -224,13 +236,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,10 +551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,7 +629,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>43770</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -640,7 +653,7 @@
         <f>SUM(F4,F5)</f>
         <v>9287.33</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="24">
         <v>9287.33</v>
       </c>
     </row>
@@ -664,10 +677,10 @@
         <v>2238.0300000000002</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <v>43860</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -691,7 +704,7 @@
         <f>SUM(F6,F7)</f>
         <v>6600.3700000000008</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="24">
         <v>6700</v>
       </c>
     </row>
@@ -715,7 +728,7 @@
         <v>1445.8500000000001</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -742,7 +755,7 @@
         <f>SUM(F8,F9)</f>
         <v>6696.4600000000009</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="24">
         <v>6696.46</v>
       </c>
     </row>
@@ -766,7 +779,7 @@
         <v>1528.47</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -793,7 +806,7 @@
         <f>SUM(F10,F11)</f>
         <v>7531.92</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="24">
         <v>7531.92</v>
       </c>
     </row>
@@ -817,7 +830,7 @@
         <v>1917.6</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -844,7 +857,7 @@
         <f>SUM(F12,F13)</f>
         <v>1747.05</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="24">
         <v>1747.05</v>
       </c>
     </row>
@@ -868,79 +881,124 @@
         <v>334.04999999999995</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="9" t="s">
+      <c r="A14" s="3">
+        <v>44215</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42993</v>
+      </c>
+      <c r="D14" s="2">
+        <f>C14-C12</f>
+        <v>5355</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <v>25222.05</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>31581.75</v>
+      </c>
+      <c r="H14" s="24">
+        <v>31581.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22684</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15-C13</f>
+        <v>2494</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>6359.7</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1358.02</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1358.02</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>31863.13</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>31962.76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9" t="s">
+      <c r="G17" s="12">
+        <f>SUM(G2:G16)</f>
+        <v>64802.9</v>
+      </c>
+      <c r="H17" s="12">
+        <f>SUM(H2:H16)</f>
+        <v>63544.509999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>99.629999999997381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11">
+        <f>SUM(H17,-G17)</f>
+        <v>-1258.3900000000067</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,10 +1011,40 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -191,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,6 +235,8 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -236,14 +245,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,10 +565,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,7 +667,7 @@
         <f>SUM(F4,F5)</f>
         <v>9287.33</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="19">
         <v>9287.33</v>
       </c>
     </row>
@@ -677,7 +691,7 @@
         <v>2238.0300000000002</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -704,7 +718,7 @@
         <f>SUM(F6,F7)</f>
         <v>6600.3700000000008</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="19">
         <v>6700</v>
       </c>
     </row>
@@ -728,7 +742,7 @@
         <v>1445.8500000000001</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -755,7 +769,7 @@
         <f>SUM(F8,F9)</f>
         <v>6696.4600000000009</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="19">
         <v>6696.46</v>
       </c>
     </row>
@@ -779,7 +793,7 @@
         <v>1528.47</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -806,7 +820,7 @@
         <f>SUM(F10,F11)</f>
         <v>7531.92</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="19">
         <v>7531.92</v>
       </c>
     </row>
@@ -830,7 +844,7 @@
         <v>1917.6</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -857,7 +871,7 @@
         <f>SUM(F12,F13)</f>
         <v>1747.05</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="19">
         <v>1747.05</v>
       </c>
     </row>
@@ -881,7 +895,7 @@
         <v>334.04999999999995</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -908,7 +922,7 @@
         <f>SUM(F14,F15)</f>
         <v>31581.75</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="19">
         <v>31581.75</v>
       </c>
     </row>
@@ -935,116 +949,269 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="24">
         <v>44215</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="25">
         <v>0</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="25">
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="27">
         <v>1358.02</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="28">
         <v>1358.02</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9" t="s">
+      <c r="A17" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43293</v>
+      </c>
+      <c r="D17" s="2">
+        <f>C17-C14</f>
+        <v>300</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17:F18" si="6">D17*E17</f>
+        <v>1413</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM(F17,F18)</f>
+        <v>1923</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22884</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18-C15</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19-C17</f>
+        <v>300</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:F20" si="7">D19*E19</f>
+        <v>1413</v>
+      </c>
+      <c r="G19" s="10">
+        <f>SUM(F19,F20)</f>
+        <v>1923</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>23084</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20-C18</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="7"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43893</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21-C19</f>
+        <v>300</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:F22" si="8">D21*E21</f>
+        <v>1413</v>
+      </c>
+      <c r="G21" s="10">
+        <f>SUM(F21,F22)</f>
+        <v>2688</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23584</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22-C20</f>
+        <v>500</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="8"/>
+        <v>1275</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12">
-        <f>SUM(G2:G16)</f>
-        <v>64802.9</v>
-      </c>
-      <c r="H17" s="12">
-        <f>SUM(H2:H16)</f>
-        <v>63544.509999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="9" t="s">
+      <c r="G23" s="12">
+        <f>SUM(G2:G22)</f>
+        <v>71336.899999999994</v>
+      </c>
+      <c r="H23" s="12">
+        <f>SUM(H2:H22)</f>
+        <v>70078.509999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11">
-        <f>SUM(H17,-G17)</f>
-        <v>-1258.3900000000067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11">
+        <f>SUM(H23,-G23)</f>
+        <v>-1258.3899999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -53,12 +53,6 @@
   <si>
     <t>остаток</t>
   </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>нач-ны пени за 83 дн</t>
-  </si>
 </sst>
 </file>
 
@@ -67,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +106,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -198,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -235,7 +222,6 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -245,19 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -565,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,7 +640,7 @@
         <f>SUM(F4,F5)</f>
         <v>9287.33</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>9287.33</v>
       </c>
     </row>
@@ -691,7 +664,7 @@
         <v>2238.0300000000002</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -718,7 +691,7 @@
         <f>SUM(F6,F7)</f>
         <v>6600.3700000000008</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>6700</v>
       </c>
     </row>
@@ -742,7 +715,7 @@
         <v>1445.8500000000001</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -769,7 +742,7 @@
         <f>SUM(F8,F9)</f>
         <v>6696.4600000000009</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>6696.46</v>
       </c>
     </row>
@@ -793,7 +766,7 @@
         <v>1528.47</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -820,7 +793,7 @@
         <f>SUM(F10,F11)</f>
         <v>7531.92</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>7531.92</v>
       </c>
     </row>
@@ -844,7 +817,7 @@
         <v>1917.6</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -871,7 +844,7 @@
         <f>SUM(F12,F13)</f>
         <v>1747.05</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>1747.05</v>
       </c>
     </row>
@@ -895,7 +868,7 @@
         <v>334.04999999999995</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -922,7 +895,7 @@
         <f>SUM(F14,F15)</f>
         <v>31581.75</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>31581.75</v>
       </c>
     </row>
@@ -949,233 +922,250 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>44215</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="25">
+      <c r="A16" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1358.02</v>
-      </c>
-      <c r="G16" s="28">
-        <v>1358.02</v>
-      </c>
-      <c r="H16" s="18"/>
+      <c r="C16" s="2">
+        <v>43293</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16-C14</f>
+        <v>300</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>1413</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>1923</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1923</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>44256</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>43293</v>
+        <v>22884</v>
       </c>
       <c r="D17" s="2">
-        <f>C17-C14</f>
-        <v>300</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4.71</v>
+        <f>C17-C15</f>
+        <v>200</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:F18" si="6">D17*E17</f>
-        <v>1413</v>
-      </c>
-      <c r="G17" s="10">
-        <f>SUM(F17,F18)</f>
-        <v>1923</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>22884</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C18-C15</f>
-        <v>200</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F18" s="8">
         <f t="shared" si="6"/>
         <v>509.99999999999994</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18-C16</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>1413</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1923</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1923</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44277</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>43593</v>
+        <v>23084</v>
       </c>
       <c r="D19" s="2">
         <f>C19-C17</f>
-        <v>300</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4.71</v>
+        <v>200</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:F20" si="7">D19*E19</f>
-        <v>1413</v>
-      </c>
-      <c r="G19" s="10">
-        <f>SUM(F19,F20)</f>
-        <v>1923</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1923</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>44315</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>23084</v>
+        <v>43893</v>
       </c>
       <c r="D20" s="2">
         <f>C20-C18</f>
-        <v>200</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2.5499999999999998</v>
+        <v>300</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="7"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>1413</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>2688</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2688</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44315</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>43893</v>
+        <v>23584</v>
       </c>
       <c r="D21" s="2">
         <f>C21-C19</f>
-        <v>300</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4.71</v>
+        <v>500</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:F22" si="8">D21*E21</f>
-        <v>1413</v>
-      </c>
-      <c r="G21" s="10">
-        <f>SUM(F21,F22)</f>
-        <v>2688</v>
-      </c>
-      <c r="H21" s="19">
-        <v>2688</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1275</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>44347</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>23584</v>
+        <v>44193</v>
       </c>
       <c r="D22" s="2">
         <f>C22-C20</f>
+        <v>300</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <v>1413</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>2688</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>24084</v>
+      </c>
+      <c r="D23" s="2">
+        <f>C23-C21</f>
         <v>500</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="8"/>
+      <c r="F23" s="8">
+        <f t="shared" si="9"/>
         <v>1275</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="12">
-        <f>SUM(G2:G22)</f>
-        <v>71336.899999999994</v>
-      </c>
-      <c r="H23" s="12">
-        <f>SUM(H2:H22)</f>
-        <v>70078.509999999995</v>
-      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="12">
+        <f>SUM(G2:G23)</f>
+        <v>72666.880000000005</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H2:H23)</f>
+        <v>72766.509999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11">
-        <f>SUM(H23,-G23)</f>
-        <v>-1258.3899999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
+        <v>99.629999999990105</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,10 +1198,20 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -538,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -830,14 +830,14 @@
         <v>37638</v>
       </c>
       <c r="D12" s="2">
-        <f>C12-C10</f>
+        <f t="shared" ref="D12:D25" si="4">C12-C10</f>
         <v>300</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
         <v>1413</v>
       </c>
       <c r="G12" s="10">
@@ -857,14 +857,14 @@
         <v>20190</v>
       </c>
       <c r="D13" s="2">
-        <f>C13-C11</f>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>334.04999999999995</v>
       </c>
       <c r="G13" s="9"/>
@@ -881,14 +881,14 @@
         <v>42993</v>
       </c>
       <c r="D14" s="2">
-        <f>C14-C12</f>
+        <f t="shared" si="4"/>
         <v>5355</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
         <v>25222.05</v>
       </c>
       <c r="G14" s="10">
@@ -908,14 +908,14 @@
         <v>22684</v>
       </c>
       <c r="D15" s="2">
-        <f>C15-C13</f>
+        <f t="shared" si="4"/>
         <v>2494</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6359.7</v>
       </c>
       <c r="G15" s="9"/>
@@ -932,14 +932,14 @@
         <v>43293</v>
       </c>
       <c r="D16" s="2">
-        <f>C16-C14</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <f t="shared" ref="F16:F17" si="7">D16*E16</f>
         <v>1413</v>
       </c>
       <c r="G16" s="10">
@@ -959,14 +959,14 @@
         <v>22884</v>
       </c>
       <c r="D17" s="2">
-        <f>C17-C15</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G17" s="9"/>
@@ -983,14 +983,14 @@
         <v>43593</v>
       </c>
       <c r="D18" s="2">
-        <f>C18-C16</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
         <v>1413</v>
       </c>
       <c r="G18" s="10">
@@ -1010,14 +1010,14 @@
         <v>23084</v>
       </c>
       <c r="D19" s="2">
-        <f>C19-C17</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G19" s="9"/>
@@ -1034,14 +1034,14 @@
         <v>43893</v>
       </c>
       <c r="D20" s="2">
-        <f>C20-C18</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
         <v>1413</v>
       </c>
       <c r="G20" s="10">
@@ -1061,14 +1061,14 @@
         <v>23584</v>
       </c>
       <c r="D21" s="2">
-        <f>C21-C19</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1275</v>
       </c>
       <c r="G21" s="9"/>
@@ -1085,14 +1085,14 @@
         <v>44193</v>
       </c>
       <c r="D22" s="2">
-        <f>C22-C20</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
         <v>1413</v>
       </c>
       <c r="G22" s="10">
@@ -1112,80 +1112,111 @@
         <v>24084</v>
       </c>
       <c r="D23" s="2">
-        <f>C23-C21</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1275</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="9" t="s">
+      <c r="A24" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44693</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="11">D24*E24</f>
+        <v>2355</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>3120</v>
+      </c>
+      <c r="H24" s="18">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24384</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="11"/>
+        <v>765</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G26" s="12">
         <f>SUM(G2:G23)</f>
         <v>72666.880000000005</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H26" s="12">
         <f>SUM(H2:H23)</f>
         <v>72766.509999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="9" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
         <v>99.629999999990105</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,10 +1239,30 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +231,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,10 +540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,11 +689,11 @@
         <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>5154.5200000000004</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="23">
         <f>SUM(F6,F7)</f>
         <v>6600.3700000000008</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="24">
         <v>6700</v>
       </c>
     </row>
@@ -1177,66 +1179,97 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="9" t="s">
+      <c r="A26" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45193</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="12">C26-C24</f>
+        <v>500</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="13">D26*E26</f>
+        <v>2480</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>3284</v>
+      </c>
+      <c r="H26" s="18">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>24684</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="13"/>
+        <v>804</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="12">
-        <f>SUM(G2:G23)</f>
-        <v>72666.880000000005</v>
-      </c>
-      <c r="H26" s="12">
-        <f>SUM(H2:H23)</f>
-        <v>72766.509999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="9" t="s">
+      <c r="G28" s="12">
+        <f>SUM(G2:G27)</f>
+        <v>79070.880000000005</v>
+      </c>
+      <c r="H28" s="12">
+        <f>SUM(H2:H27)</f>
+        <v>79170.509999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11">
+        <f>SUM(H28,-G28)</f>
         <v>99.629999999990105</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1259,10 +1292,30 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -223,6 +223,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -231,8 +233,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,10 +540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,11 +689,11 @@
         <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>5154.5200000000004</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="19">
         <f>SUM(F6,F7)</f>
         <v>6600.3700000000008</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <v>6700</v>
       </c>
     </row>
@@ -1230,66 +1230,97 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="9" t="s">
+      <c r="A28" s="3">
+        <v>44434</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45693</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="14">C28-C26</f>
+        <v>500</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="15">D28*E28</f>
+        <v>2480</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>3284</v>
+      </c>
+      <c r="H28" s="18">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24984</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="15"/>
+        <v>804</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G30" s="12">
         <f>SUM(G2:G27)</f>
         <v>79070.880000000005</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H30" s="12">
         <f>SUM(H2:H27)</f>
         <v>79170.509999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="9" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11">
-        <f>SUM(H28,-G28)</f>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11">
+        <f>SUM(H30,-G30)</f>
         <v>99.629999999990105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1312,10 +1343,30 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -112,7 +112,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,6 +217,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -219,7 +228,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,14 +586,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <v>44466</v>
+      <c r="A2" s="17">
+        <v>44501</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>46193</v>
+        <v>46693</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
@@ -594,7 +603,7 @@
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
         <v>2480</v>
       </c>
       <c r="G2" s="10">
@@ -611,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>25284</v>
+        <v>25584</v>
       </c>
       <c r="D3" s="2">
         <f>C3-C5</f>
@@ -628,14 +637,14 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44434</v>
+      <c r="A4" s="22">
+        <v>44466</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>45693</v>
+        <v>46193</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
@@ -645,7 +654,7 @@
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>2480</v>
       </c>
       <c r="G4" s="10">
@@ -662,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>24984</v>
+        <v>25284</v>
       </c>
       <c r="D5" s="2">
         <f>C5-C7</f>
@@ -672,7 +681,7 @@
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>804</v>
       </c>
       <c r="G5" s="9"/>
@@ -680,19 +689,32 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44403</v>
+        <v>44434</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>45193</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
+        <v>45693</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C8</f>
+        <v>500</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>2480</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>3284</v>
+      </c>
+      <c r="H6" s="16">
+        <v>3284</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -700,75 +722,93 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>24684</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
+        <v>24984</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C9</f>
+        <v>300</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>804</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="9" t="s">
+      <c r="A8" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45193</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24684</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12">
-        <f>SUM(G2:G7)</f>
+      <c r="G10" s="12">
+        <f>SUM(G4:G9)</f>
         <v>6568</v>
       </c>
-      <c r="H8" s="12">
-        <f>SUM(H2:H7)</f>
+      <c r="H10" s="12">
+        <f>SUM(H4:H9)</f>
         <v>6568</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11">
-        <f>SUM(H8,-G8)</f>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,10 +831,30 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/92ee.xlsx
+++ b/sputnik/personal/ee/92ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -220,6 +220,21 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -228,9 +243,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,10 +550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,74 +599,74 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>44501</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>44553</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>46693</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2-C4</f>
+      <c r="C2" s="19">
+        <v>47693</v>
+      </c>
+      <c r="D2" s="19">
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
         <v>500</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="20">
         <v>4.96</v>
       </c>
-      <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+      <c r="F2" s="21">
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
         <v>2480</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="22">
         <f>SUM(F2,F3)</f>
         <v>3284</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="23">
         <v>3284</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>25584</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3-C5</f>
+      <c r="C3" s="19">
+        <v>26184</v>
+      </c>
+      <c r="D3" s="19">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="19">
         <v>2.68</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" si="0"/>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
         <v>804</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>44466</v>
+      <c r="A4" s="18">
+        <v>44524</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>46193</v>
+        <v>47193</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C6</f>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
         <v>500</v>
       </c>
       <c r="E4" s="6">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
         <v>2480</v>
       </c>
       <c r="G4" s="10">
@@ -671,41 +683,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>25284</v>
+        <v>25884</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C7</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>804</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44434</v>
+      <c r="A6" s="18">
+        <v>44501</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>45693</v>
+        <v>46693</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C8</f>
+        <f t="shared" ref="D6:D11" si="4">C6-C8</f>
         <v>500</v>
       </c>
       <c r="E6" s="6">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
         <v>2480</v>
       </c>
       <c r="G6" s="10">
@@ -722,37 +734,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>24984</v>
+        <v>25584</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C9</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E7" s="2">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>804</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44403</v>
+      <c r="A8" s="18">
+        <v>44466</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>45193</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+        <v>46193</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F11" si="6">D8*E8</f>
+        <v>2480</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>3284</v>
+      </c>
+      <c r="H8" s="16">
+        <v>3284</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -760,101 +785,190 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>24684</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
+        <v>25284</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>804</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
+      <c r="A10" s="3">
+        <v>44434</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45693</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="6"/>
+        <v>2480</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>3284</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24984</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>804</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45193</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24684</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12">
-        <f>SUM(G4:G9)</f>
-        <v>6568</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(H4:H9)</f>
-        <v>6568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9" t="s">
+      <c r="G14" s="12">
+        <f>SUM(G6:G13)</f>
+        <v>9852</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H6:H13)</f>
+        <v>9852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
